--- a/Excelの転機/出席率_大橋校（３年：北村）.xlsx
+++ b/Excelの転機/出席率_大橋校（３年：北村）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18106\Documents\UiPath\Excelの転機\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3年アスリート_第▼週'!$A$8:$X$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'3年アスリート_第▼週'!$B$1:$W$40</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
@@ -2385,12 +2385,8 @@
       <c r="K9" s="59">
         <v>1</v>
       </c>
-      <c r="L9" s="71">
-        <v>1</v>
-      </c>
-      <c r="M9" s="71">
-        <v>1</v>
-      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
       <c r="N9" s="35" t="str">
         <f>IF(L9&lt;M9,$N$3,IF(K9=F9,$N$4,$N$5))</f>
         <v>　→</v>
@@ -2434,12 +2430,8 @@
       <c r="K10" s="62">
         <v>1</v>
       </c>
-      <c r="L10" s="72">
-        <v>1</v>
-      </c>
-      <c r="M10" s="72">
-        <v>1</v>
-      </c>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="35" t="str">
         <f t="shared" ref="N10:N37" si="1">IF(L10&lt;M10,$N$3,IF(K10=F10,$N$4,$N$5))</f>
         <v>　→</v>
@@ -2483,12 +2475,8 @@
       <c r="K11" s="62">
         <v>1</v>
       </c>
-      <c r="L11" s="72">
-        <v>1</v>
-      </c>
-      <c r="M11" s="72">
-        <v>1</v>
-      </c>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -2532,12 +2520,8 @@
       <c r="K12" s="62">
         <v>1</v>
       </c>
-      <c r="L12" s="72">
-        <v>1</v>
-      </c>
-      <c r="M12" s="72">
-        <v>1</v>
-      </c>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -2581,12 +2565,8 @@
       <c r="K13" s="70">
         <v>1</v>
       </c>
-      <c r="L13" s="72">
-        <v>1</v>
-      </c>
-      <c r="M13" s="72">
-        <v>1</v>
-      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
       <c r="N13" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -2630,12 +2610,8 @@
       <c r="K14" s="62">
         <v>1</v>
       </c>
-      <c r="L14" s="72">
-        <v>1</v>
-      </c>
-      <c r="M14" s="72">
-        <v>1</v>
-      </c>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
       <c r="N14" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -2679,12 +2655,8 @@
       <c r="K15" s="62">
         <v>0.8</v>
       </c>
-      <c r="L15" s="72">
-        <v>1</v>
-      </c>
-      <c r="M15" s="72">
-        <v>1</v>
-      </c>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
       <c r="N15" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　　↓</v>
@@ -2728,12 +2700,8 @@
       <c r="K16" s="62">
         <v>0.6</v>
       </c>
-      <c r="L16" s="72">
-        <v>1</v>
-      </c>
-      <c r="M16" s="72">
-        <v>1</v>
-      </c>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
       <c r="N16" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　　↓</v>
@@ -2777,12 +2745,8 @@
       <c r="K17" s="62">
         <v>1</v>
       </c>
-      <c r="L17" s="72">
-        <v>1</v>
-      </c>
-      <c r="M17" s="72">
-        <v>1</v>
-      </c>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -2826,12 +2790,8 @@
       <c r="K18" s="70">
         <v>1</v>
       </c>
-      <c r="L18" s="72">
-        <v>1</v>
-      </c>
-      <c r="M18" s="72">
-        <v>1</v>
-      </c>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -2875,12 +2835,8 @@
       <c r="K19" s="62">
         <v>1</v>
       </c>
-      <c r="L19" s="72">
-        <v>1</v>
-      </c>
-      <c r="M19" s="72">
-        <v>1</v>
-      </c>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -2924,12 +2880,8 @@
       <c r="K20" s="62">
         <v>1</v>
       </c>
-      <c r="L20" s="72">
-        <v>1</v>
-      </c>
-      <c r="M20" s="72">
-        <v>1</v>
-      </c>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -2973,12 +2925,8 @@
       <c r="K21" s="62">
         <v>1</v>
       </c>
-      <c r="L21" s="72">
-        <v>1</v>
-      </c>
-      <c r="M21" s="72">
-        <v>1</v>
-      </c>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
       <c r="N21" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3022,12 +2970,8 @@
       <c r="K22" s="62">
         <v>0.96699999999999997</v>
       </c>
-      <c r="L22" s="72">
-        <v>1</v>
-      </c>
-      <c r="M22" s="72">
-        <v>1</v>
-      </c>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
       <c r="N22" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　　↓</v>
@@ -3071,12 +3015,8 @@
       <c r="K23" s="70">
         <v>1</v>
       </c>
-      <c r="L23" s="72">
-        <v>1</v>
-      </c>
-      <c r="M23" s="72">
-        <v>1</v>
-      </c>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
       <c r="N23" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3120,12 +3060,8 @@
       <c r="K24" s="62">
         <v>1</v>
       </c>
-      <c r="L24" s="72">
-        <v>1</v>
-      </c>
-      <c r="M24" s="72">
-        <v>1</v>
-      </c>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
       <c r="N24" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3169,12 +3105,8 @@
       <c r="K25" s="62">
         <v>1</v>
       </c>
-      <c r="L25" s="72">
-        <v>1</v>
-      </c>
-      <c r="M25" s="72">
-        <v>1</v>
-      </c>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
       <c r="N25" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3219,12 +3151,8 @@
       <c r="K26" s="62">
         <v>1</v>
       </c>
-      <c r="L26" s="72">
-        <v>1</v>
-      </c>
-      <c r="M26" s="72">
-        <v>1</v>
-      </c>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
       <c r="N26" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3268,12 +3196,8 @@
       <c r="K27" s="62">
         <v>1</v>
       </c>
-      <c r="L27" s="72">
-        <v>1</v>
-      </c>
-      <c r="M27" s="72">
-        <v>1</v>
-      </c>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
       <c r="N27" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3317,12 +3241,8 @@
       <c r="K28" s="70">
         <v>1</v>
       </c>
-      <c r="L28" s="72">
-        <v>1</v>
-      </c>
-      <c r="M28" s="72">
-        <v>1</v>
-      </c>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
       <c r="N28" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3366,12 +3286,8 @@
       <c r="K29" s="62">
         <v>1</v>
       </c>
-      <c r="L29" s="72">
-        <v>1</v>
-      </c>
-      <c r="M29" s="72">
-        <v>1</v>
-      </c>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
       <c r="N29" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3415,12 +3331,8 @@
       <c r="K30" s="62">
         <v>1</v>
       </c>
-      <c r="L30" s="72">
-        <v>1</v>
-      </c>
-      <c r="M30" s="72">
-        <v>1</v>
-      </c>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
       <c r="N30" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3465,12 +3377,8 @@
       <c r="K31" s="62">
         <v>1</v>
       </c>
-      <c r="L31" s="72">
-        <v>1</v>
-      </c>
-      <c r="M31" s="72">
-        <v>1</v>
-      </c>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
       <c r="N31" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3514,12 +3422,8 @@
       <c r="K32" s="62">
         <v>0.96699999999999997</v>
       </c>
-      <c r="L32" s="72">
-        <v>1</v>
-      </c>
-      <c r="M32" s="72">
-        <v>1</v>
-      </c>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
       <c r="N32" s="35"/>
       <c r="O32" s="19"/>
       <c r="Q32" s="46"/>
@@ -3560,12 +3464,8 @@
       <c r="K33" s="70">
         <v>1</v>
       </c>
-      <c r="L33" s="72">
-        <v>1</v>
-      </c>
-      <c r="M33" s="72">
-        <v>1</v>
-      </c>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
       <c r="N33" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3609,12 +3509,8 @@
       <c r="K34" s="62">
         <v>1</v>
       </c>
-      <c r="L34" s="72">
-        <v>1</v>
-      </c>
-      <c r="M34" s="72">
-        <v>1</v>
-      </c>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
       <c r="N34" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3658,12 +3554,8 @@
       <c r="K35" s="62">
         <v>1</v>
       </c>
-      <c r="L35" s="72">
-        <v>1</v>
-      </c>
-      <c r="M35" s="72">
-        <v>1</v>
-      </c>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
       <c r="N35" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3707,12 +3599,8 @@
       <c r="K36" s="62">
         <v>1</v>
       </c>
-      <c r="L36" s="72">
-        <v>1</v>
-      </c>
-      <c r="M36" s="72">
-        <v>1</v>
-      </c>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
       <c r="N36" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3756,12 +3644,8 @@
       <c r="K37" s="62">
         <v>1</v>
       </c>
-      <c r="L37" s="72">
-        <v>1</v>
-      </c>
-      <c r="M37" s="72">
-        <v>1</v>
-      </c>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
       <c r="N37" s="35" t="str">
         <f t="shared" si="1"/>
         <v>　→</v>
@@ -3826,13 +3710,13 @@
         <f>AVERAGE(K9:K37)</f>
         <v>0.97703448275862059</v>
       </c>
-      <c r="L39" s="69">
+      <c r="L39" s="69" t="e">
         <f>AVERAGE(L9:L37)</f>
-        <v>1</v>
-      </c>
-      <c r="M39" s="69">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="69" t="e">
         <f>AVERAGE(M9:M37)</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N39" s="10" t="str">
         <f>IF(I39&lt;J39,$N$3,IF(G39=H39,$N$4,$N$5))</f>
